--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanIntDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanIntDetail.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF66B8-800C-49DA-9579-7E3DB4F7A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -309,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:按日計息 2:按月計息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Principal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,10 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0:否  1:是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND BreachGetCode = </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,12 +412,22 @@
   <si>
     <t>fildFacmNoEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:按日計息
+2:按月計息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:否
+1:是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -726,7 +735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +768,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,6 +820,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -997,7 +1040,7 @@
         <v>68</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
@@ -1129,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>12</v>
@@ -1149,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>15</v>
@@ -1169,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>16</v>
@@ -1189,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>13</v>
@@ -1209,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>19</v>
@@ -1229,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>14</v>
@@ -1363,7 +1406,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1381,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H21" s="5"/>
     </row>
@@ -1411,7 +1454,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>25</v>
@@ -1440,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1457,10 +1500,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>64</v>
@@ -1549,7 +1592,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>43</v>
@@ -1572,7 +1615,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>42</v>
@@ -1584,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -1594,10 +1637,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>64</v>
@@ -1611,16 +1654,16 @@
       <c r="G31" s="23"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>64</v>
@@ -1629,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H32" s="5"/>
     </row>
@@ -1810,10 +1853,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -1839,24 +1882,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
